--- a/MDA-MB-231-Cell-Count-Data/GH1909_75nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_75nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:G214"/>
+      <selection activeCell="B1" sqref="B1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1738</v>
+        <v>1383.1787637855859</v>
       </c>
       <c r="C1">
-        <v>1848</v>
+        <v>1500.0101265822786</v>
       </c>
       <c r="D1">
-        <v>2000</v>
+        <v>1638.5331143951835</v>
       </c>
       <c r="E1">
-        <v>1926</v>
+        <v>1412.6789389435171</v>
       </c>
       <c r="F1">
-        <v>1782</v>
+        <v>1321.7224390243905</v>
       </c>
       <c r="G1">
-        <v>1653</v>
+        <v>1225.3431192660551</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -376,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1704</v>
+        <v>1356.1200307771223</v>
       </c>
       <c r="C2">
-        <v>1930</v>
+        <v>1566.5690174804099</v>
       </c>
       <c r="D2">
-        <v>2236</v>
+        <v>1831.8800218938152</v>
       </c>
       <c r="E2">
-        <v>1954</v>
+        <v>1433.2163274639836</v>
       </c>
       <c r="F2">
-        <v>1829</v>
+        <v>1356.5826829268296</v>
       </c>
       <c r="G2">
-        <v>1726</v>
+        <v>1279.4568807339449</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -399,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1764</v>
+        <v>1403.8707360861758</v>
       </c>
       <c r="C3">
-        <v>1962</v>
+        <v>1592.5432188065101</v>
       </c>
       <c r="D3">
-        <v>2253</v>
+        <v>1845.8075533661743</v>
       </c>
       <c r="E3">
-        <v>2039</v>
+        <v>1495.5619711868283</v>
       </c>
       <c r="F3">
-        <v>1872</v>
+        <v>1388.4760975609759</v>
       </c>
       <c r="G3">
-        <v>1769</v>
+        <v>1311.3321100917431</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -422,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1809</v>
+        <v>1439.6837650679661</v>
       </c>
       <c r="C4">
-        <v>2042</v>
+        <v>1657.4787221217603</v>
       </c>
       <c r="D4">
-        <v>2349</v>
+        <v>1924.457142857143</v>
       </c>
       <c r="E4">
-        <v>2144</v>
+        <v>1572.5771781385777</v>
       </c>
       <c r="F4">
-        <v>1960</v>
+        <v>1453.7463414634149</v>
       </c>
       <c r="G4">
-        <v>1861</v>
+        <v>1379.5302752293578</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1911</v>
+        <v>1520.8599640933573</v>
       </c>
       <c r="C5">
-        <v>2140</v>
+        <v>1737.0247136829416</v>
       </c>
       <c r="D5">
-        <v>2418</v>
+        <v>1980.9865353037769</v>
       </c>
       <c r="E5">
-        <v>2248</v>
+        <v>1648.8589069288819</v>
       </c>
       <c r="F5">
-        <v>2046</v>
+        <v>1517.5331707317077</v>
       </c>
       <c r="G5">
-        <v>1909</v>
+        <v>1415.1119266055046</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2037</v>
+        <v>1621.1364452423697</v>
       </c>
       <c r="C6">
-        <v>2216</v>
+        <v>1798.7134418324292</v>
       </c>
       <c r="D6">
-        <v>2557</v>
+        <v>2094.8645867542423</v>
       </c>
       <c r="E6">
-        <v>2359</v>
+        <v>1730.2749828493027</v>
       </c>
       <c r="F6">
-        <v>2159</v>
+        <v>1601.346097560976</v>
       </c>
       <c r="G6">
-        <v>2048</v>
+        <v>1518.1504587155962</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2105</v>
+        <v>1675.2539112592972</v>
       </c>
       <c r="C7">
-        <v>2310</v>
+        <v>1875.0126582278483</v>
       </c>
       <c r="D7">
-        <v>2620</v>
+        <v>2146.4783798576905</v>
       </c>
       <c r="E7">
-        <v>2447</v>
+        <v>1794.8210610564831</v>
       </c>
       <c r="F7">
-        <v>2285</v>
+        <v>1694.8012195121955</v>
       </c>
       <c r="G7">
-        <v>2142</v>
+        <v>1587.8311926605504</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2198</v>
+        <v>1749.2675044883304</v>
       </c>
       <c r="C8">
-        <v>2387</v>
+        <v>1937.5130801687765</v>
       </c>
       <c r="D8">
-        <v>2722</v>
+        <v>2230.0435686918445</v>
       </c>
       <c r="E8">
-        <v>2564</v>
+        <v>1880.6380059455753</v>
       </c>
       <c r="F8">
-        <v>2349</v>
+        <v>1742.2704878048785</v>
       </c>
       <c r="G8">
-        <v>2226</v>
+        <v>1650.0990825688073</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2306</v>
+        <v>1835.2187740446268</v>
       </c>
       <c r="C9">
-        <v>2492</v>
+        <v>2022.7409282700423</v>
       </c>
       <c r="D9">
-        <v>2811</v>
+        <v>2302.9582922824302</v>
       </c>
       <c r="E9">
-        <v>2627</v>
+        <v>1926.8471301166248</v>
       </c>
       <c r="F9">
-        <v>2450</v>
+        <v>1817.1829268292688</v>
       </c>
       <c r="G9">
-        <v>2339</v>
+        <v>1733.8642201834862</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2413</v>
+        <v>1920.3741985124391</v>
       </c>
       <c r="C10">
-        <v>2636</v>
+        <v>2139.6248342374925</v>
       </c>
       <c r="D10">
-        <v>2971</v>
+        <v>2434.0409414340452</v>
       </c>
       <c r="E10">
-        <v>2805</v>
+        <v>2057.4062428538764</v>
       </c>
       <c r="F10">
-        <v>2542</v>
+        <v>1885.4200000000005</v>
       </c>
       <c r="G10">
-        <v>2409</v>
+        <v>1785.7541284403669</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2626</v>
+        <v>2089.8892023595795</v>
       </c>
       <c r="C11">
-        <v>2871</v>
+        <v>2330.3728752260399</v>
       </c>
       <c r="D11">
-        <v>3213</v>
+        <v>2632.3034482758621</v>
       </c>
       <c r="E11">
-        <v>2990</v>
+        <v>2193.0997027212443</v>
       </c>
       <c r="F11">
-        <v>2791</v>
+        <v>2070.1051219512201</v>
       </c>
       <c r="G11">
-        <v>2634</v>
+        <v>1952.5431192660549</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>2791</v>
+        <v>2221.203641959477</v>
       </c>
       <c r="C12">
-        <v>2985</v>
+        <v>2422.9059674502714</v>
       </c>
       <c r="D12">
-        <v>3398</v>
+        <v>2783.8677613574168</v>
       </c>
       <c r="E12">
-        <v>3239</v>
+        <v>2375.7357649211071</v>
       </c>
       <c r="F12">
-        <v>2993</v>
+        <v>2219.9300000000007</v>
       </c>
       <c r="G12">
-        <v>2771</v>
+        <v>2054.0990825688073</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>2976</v>
+        <v>2368.4349833290585</v>
       </c>
       <c r="C13">
-        <v>3174</v>
+        <v>2576.3160940325502</v>
       </c>
       <c r="D13">
-        <v>3609</v>
+        <v>2956.7330049261086</v>
       </c>
       <c r="E13">
-        <v>3413</v>
+        <v>2503.3609650125773</v>
       </c>
       <c r="F13">
-        <v>3144</v>
+        <v>2331.9278048780493</v>
       </c>
       <c r="G13">
-        <v>2956</v>
+        <v>2191.2366972477062</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3174</v>
+        <v>2526.0123108489356</v>
       </c>
       <c r="C14">
-        <v>3481</v>
+        <v>2825.5060880048222</v>
       </c>
       <c r="D14">
-        <v>3872</v>
+        <v>3172.2001094690754</v>
       </c>
       <c r="E14">
-        <v>3644</v>
+        <v>2672.7944203064258</v>
       </c>
       <c r="F14">
-        <v>3367</v>
+        <v>2497.3285365853662</v>
       </c>
       <c r="G14">
-        <v>3125</v>
+        <v>2316.5137614678897</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3369</v>
+        <v>2681.2021031033596</v>
       </c>
       <c r="C15">
-        <v>3616</v>
+        <v>2935.0847498493072</v>
       </c>
       <c r="D15">
-        <v>4044</v>
+        <v>3313.1139573070609</v>
       </c>
       <c r="E15">
-        <v>3798</v>
+        <v>2785.7500571689916</v>
       </c>
       <c r="F15">
-        <v>3537</v>
+        <v>2623.4187804878056</v>
       </c>
       <c r="G15">
-        <v>3315</v>
+        <v>2457.3577981651374</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3553</v>
+        <v>2827.6375993844576</v>
       </c>
       <c r="C16">
-        <v>3775</v>
+        <v>3064.1440626883668</v>
       </c>
       <c r="D16">
-        <v>4159</v>
+        <v>3407.3296113847841</v>
       </c>
       <c r="E16">
-        <v>3991</v>
+        <v>2927.3113423279215</v>
       </c>
       <c r="F16">
-        <v>3775</v>
+        <v>2799.9451219512202</v>
       </c>
       <c r="G16">
-        <v>3418</v>
+        <v>2533.7100917431189</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3653</v>
+        <v>2907.2221082328801</v>
       </c>
       <c r="C17">
-        <v>3910</v>
+        <v>3173.7227245328513</v>
       </c>
       <c r="D17">
-        <v>4342</v>
+        <v>3557.2553913519432</v>
       </c>
       <c r="E17">
-        <v>4175</v>
+        <v>3062.2713240338444</v>
       </c>
       <c r="F17">
-        <v>3842</v>
+        <v>2849.6395121951227</v>
       </c>
       <c r="G17">
-        <v>3560</v>
+        <v>2638.9724770642201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>3736</v>
+        <v>2973.2772505770708</v>
       </c>
       <c r="C18">
-        <v>4017</v>
+        <v>3260.5739602169983</v>
       </c>
       <c r="D18">
-        <v>4411</v>
+        <v>3613.7847837985773</v>
       </c>
       <c r="E18">
-        <v>4209</v>
+        <v>3087.2095815229823</v>
       </c>
       <c r="F18">
-        <v>3968</v>
+        <v>2943.0946341463423</v>
       </c>
       <c r="G18">
-        <v>3646</v>
+        <v>2702.7229357798165</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>3788</v>
+        <v>3014.6611951782506</v>
       </c>
       <c r="C19">
-        <v>4057</v>
+        <v>3293.0417118746236</v>
       </c>
       <c r="D19">
-        <v>4495</v>
+        <v>3682.6031746031749</v>
       </c>
       <c r="E19">
-        <v>4274</v>
+        <v>3134.8856620169222</v>
       </c>
       <c r="F19">
-        <v>4046</v>
+        <v>3000.9478048780493</v>
       </c>
       <c r="G19">
-        <v>3731</v>
+        <v>2765.7321100917429</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>3821</v>
+        <v>3040.9240830982303</v>
       </c>
       <c r="C20">
-        <v>4117</v>
+        <v>3341.7433393610613</v>
       </c>
       <c r="D20">
-        <v>4528</v>
+        <v>3709.6389709906953</v>
       </c>
       <c r="E20">
-        <v>4272</v>
+        <v>3133.4187056940318</v>
       </c>
       <c r="F20">
-        <v>4057</v>
+        <v>3009.1065853658542</v>
       </c>
       <c r="G20">
-        <v>3751</v>
+        <v>2780.5577981651372</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>3871</v>
+        <v>3080.7163375224418</v>
       </c>
       <c r="C21">
-        <v>4093</v>
+        <v>3322.2626883664861</v>
       </c>
       <c r="D21">
-        <v>4518</v>
+        <v>3701.4463054187195</v>
       </c>
       <c r="E21">
-        <v>4285</v>
+        <v>3142.95392179282</v>
       </c>
       <c r="F21">
-        <v>4068</v>
+        <v>3017.2653658536592</v>
       </c>
       <c r="G21">
-        <v>3813</v>
+        <v>2826.5174311926603</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>3896</v>
+        <v>3100.6124647345473</v>
       </c>
       <c r="C22">
-        <v>4116</v>
+        <v>3340.9316455696207</v>
       </c>
       <c r="D22">
-        <v>4521</v>
+        <v>3703.9041050903124</v>
       </c>
       <c r="E22">
-        <v>4286</v>
+        <v>3143.6873999542649</v>
       </c>
       <c r="F22">
-        <v>4124</v>
+        <v>3058.8009756097567</v>
       </c>
       <c r="G22">
-        <v>3797</v>
+        <v>2814.6568807339449</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>3898</v>
+        <v>3102.2041549115156</v>
       </c>
       <c r="C23">
-        <v>4137</v>
+        <v>3357.9772151898737</v>
       </c>
       <c r="D23">
-        <v>4552</v>
+        <v>3729.3013683634376</v>
       </c>
       <c r="E23">
-        <v>4344</v>
+        <v>3186.2291333180883</v>
       </c>
       <c r="F23">
-        <v>4108</v>
+        <v>3046.9336585365859</v>
       </c>
       <c r="G23">
-        <v>3809</v>
+        <v>2823.5522935779813</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
